--- a/kaiseki/time_gap.xlsx
+++ b/kaiseki/time_gap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/kaiseki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{54AC58E4-259E-414F-8713-052FED5C094F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42714D70-4403-4B98-9578-7C131100CB8A}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{54AC58E4-259E-414F-8713-052FED5C094F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B20DB871-5224-43FE-92AF-069302D6726D}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="17805" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,7 +455,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -622,7 +622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -641,10 +641,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3348,6 +3347,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3635,8 +3638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8529,7 +8532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD186BCC-BCA3-4238-BD04-E0F5A366C187}">
   <dimension ref="A1:EK102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W2" workbookViewId="0">
+    <sheetView topLeftCell="W2" workbookViewId="0">
       <selection activeCell="AD36" sqref="AD36:AF49"/>
     </sheetView>
   </sheetViews>
@@ -11812,18 +11815,18 @@
       <c r="U38" t="s">
         <v>53</v>
       </c>
-      <c r="Z38" s="15"/>
-      <c r="AA38" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB38" s="15" t="s">
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB38" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AD38" s="15"/>
-      <c r="AE38" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF38" s="15" t="s">
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF38" s="14" t="s">
         <v>91</v>
       </c>
     </row>
@@ -11892,22 +11895,22 @@
         <f>CORREL(B7:O16,B76:O85)</f>
         <v>0.14415421580351007</v>
       </c>
-      <c r="Z39" s="13" t="s">
+      <c r="Z39" t="s">
         <v>92</v>
       </c>
-      <c r="AA39" s="13">
+      <c r="AA39">
         <v>0.29463656688003187</v>
       </c>
-      <c r="AB39" s="13">
+      <c r="AB39">
         <v>0.30031598906892021</v>
       </c>
-      <c r="AD39" s="13" t="s">
+      <c r="AD39" t="s">
         <v>92</v>
       </c>
-      <c r="AE39" s="13">
+      <c r="AE39">
         <v>0.28091574534153563</v>
       </c>
-      <c r="AF39" s="13">
+      <c r="AF39">
         <v>0.2505466419150455</v>
       </c>
     </row>
@@ -11976,22 +11979,22 @@
         <f>CORREL(B22:O31,B91:O100)</f>
         <v>0.25119464978239509</v>
       </c>
-      <c r="Z40" s="13" t="s">
+      <c r="Z40" t="s">
         <v>93</v>
       </c>
-      <c r="AA40" s="13">
+      <c r="AA40">
         <v>8.6804666411390719E-3</v>
       </c>
-      <c r="AB40" s="13">
+      <c r="AB40">
         <v>1.2284974843778317E-2</v>
       </c>
-      <c r="AD40" s="13" t="s">
+      <c r="AD40" t="s">
         <v>93</v>
       </c>
-      <c r="AE40" s="13">
+      <c r="AE40">
         <v>8.6271112533947755E-3</v>
       </c>
-      <c r="AF40" s="13">
+      <c r="AF40">
         <v>1.809901939530251E-2</v>
       </c>
     </row>
@@ -12041,22 +12044,22 @@
       <c r="O41" s="3">
         <v>70</v>
       </c>
-      <c r="Z41" s="13" t="s">
+      <c r="Z41" t="s">
         <v>94</v>
       </c>
-      <c r="AA41" s="13">
-        <v>70</v>
-      </c>
-      <c r="AB41" s="13">
+      <c r="AA41">
+        <v>70</v>
+      </c>
+      <c r="AB41">
         <v>140</v>
       </c>
-      <c r="AD41" s="13" t="s">
+      <c r="AD41" t="s">
         <v>94</v>
       </c>
-      <c r="AE41" s="13">
-        <v>70</v>
-      </c>
-      <c r="AF41" s="13">
+      <c r="AE41">
+        <v>70</v>
+      </c>
+      <c r="AF41">
         <v>140</v>
       </c>
     </row>
@@ -12118,20 +12121,18 @@
       <c r="W42" t="s">
         <v>83</v>
       </c>
-      <c r="Z42" s="13" t="s">
+      <c r="Z42" t="s">
         <v>95</v>
       </c>
-      <c r="AA42" s="13">
+      <c r="AA42">
         <v>1.1089248565018183E-2</v>
       </c>
-      <c r="AB42" s="13"/>
-      <c r="AD42" s="13" t="s">
+      <c r="AD42" t="s">
         <v>95</v>
       </c>
-      <c r="AE42" s="13">
+      <c r="AE42">
         <v>1.4956896021304272E-2</v>
       </c>
-      <c r="AF42" s="13"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
@@ -12203,20 +12204,18 @@
       <c r="X43" t="s">
         <v>71</v>
       </c>
-      <c r="Z43" s="13" t="s">
+      <c r="Z43" t="s">
         <v>96</v>
       </c>
-      <c r="AA43" s="13">
+      <c r="AA43">
         <v>0</v>
       </c>
-      <c r="AB43" s="13"/>
-      <c r="AD43" s="13" t="s">
+      <c r="AD43" t="s">
         <v>96</v>
       </c>
-      <c r="AE43" s="13">
+      <c r="AE43">
         <v>0</v>
       </c>
-      <c r="AF43" s="13"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
@@ -12296,20 +12295,18 @@
         <f>TDIST(ABS(W44),138,2)</f>
         <v>1.6129081532651016E-22</v>
       </c>
-      <c r="Z44" s="13" t="s">
+      <c r="Z44" t="s">
         <v>97</v>
       </c>
-      <c r="AA44" s="13">
+      <c r="AA44">
         <v>208</v>
       </c>
-      <c r="AB44" s="13"/>
-      <c r="AD44" s="13" t="s">
+      <c r="AD44" t="s">
         <v>97</v>
       </c>
-      <c r="AE44" s="13">
+      <c r="AE44">
         <v>208</v>
       </c>
-      <c r="AF44" s="13"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
@@ -12369,20 +12366,18 @@
       <c r="W45" t="s">
         <v>87</v>
       </c>
-      <c r="Z45" s="13" t="s">
+      <c r="Z45" t="s">
         <v>98</v>
       </c>
-      <c r="AA45" s="13">
+      <c r="AA45">
         <v>-0.36843127176074397</v>
       </c>
-      <c r="AB45" s="13"/>
-      <c r="AD45" s="13" t="s">
+      <c r="AD45" t="s">
         <v>98</v>
       </c>
-      <c r="AE45" s="13">
+      <c r="AE45">
         <v>1.6963467218229342</v>
       </c>
-      <c r="AF45" s="13"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
@@ -12454,20 +12449,18 @@
       <c r="X46" t="s">
         <v>71</v>
       </c>
-      <c r="Z46" s="13" t="s">
+      <c r="Z46" t="s">
         <v>99</v>
       </c>
-      <c r="AA46" s="13">
+      <c r="AA46">
         <v>0.35646319190812847</v>
       </c>
-      <c r="AB46" s="13"/>
-      <c r="AD46" s="13" t="s">
+      <c r="AD46" t="s">
         <v>99</v>
       </c>
-      <c r="AE46" s="13">
+      <c r="AE46">
         <v>4.5658133446839645E-2</v>
       </c>
-      <c r="AF46" s="13"/>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
@@ -12547,20 +12540,18 @@
         <f>TDIST(ABS(W47),138,2)</f>
         <v>2.7563366383012012E-3</v>
       </c>
-      <c r="Z47" s="13" t="s">
+      <c r="Z47" t="s">
         <v>100</v>
       </c>
-      <c r="AA47" s="13">
+      <c r="AA47">
         <v>1.6522123760661407</v>
       </c>
-      <c r="AB47" s="13"/>
-      <c r="AD47" s="13" t="s">
+      <c r="AD47" t="s">
         <v>100</v>
       </c>
-      <c r="AE47" s="13">
+      <c r="AE47">
         <v>1.6522123760661407</v>
       </c>
-      <c r="AF47" s="13"/>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
@@ -12608,20 +12599,18 @@
       <c r="O48" s="3">
         <v>70</v>
       </c>
-      <c r="Z48" s="13" t="s">
+      <c r="Z48" t="s">
         <v>101</v>
       </c>
-      <c r="AA48" s="13">
+      <c r="AA48">
         <v>0.71292638381625695</v>
       </c>
-      <c r="AB48" s="13"/>
-      <c r="AD48" s="13" t="s">
+      <c r="AD48" t="s">
         <v>101</v>
       </c>
-      <c r="AE48" s="13">
+      <c r="AE48">
         <v>9.131626689367929E-2</v>
       </c>
-      <c r="AF48" s="13"/>
     </row>
     <row r="49" spans="1:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -12669,20 +12658,20 @@
       <c r="O49" s="3">
         <v>80</v>
       </c>
-      <c r="Z49" s="14" t="s">
+      <c r="Z49" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="AA49" s="14">
+      <c r="AA49" s="13">
         <v>1.9714346585202402</v>
       </c>
-      <c r="AB49" s="14"/>
-      <c r="AD49" s="14" t="s">
+      <c r="AB49" s="13"/>
+      <c r="AD49" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="AE49" s="14">
+      <c r="AE49" s="13">
         <v>1.9714346585202402</v>
       </c>
-      <c r="AF49" s="14"/>
+      <c r="AF49" s="13"/>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">

--- a/kaiseki/time_gap.xlsx
+++ b/kaiseki/time_gap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/kaiseki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{54AC58E4-259E-414F-8713-052FED5C094F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B20DB871-5224-43FE-92AF-069302D6726D}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{54AC58E4-259E-414F-8713-052FED5C094F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83EFB2F5-D1D8-4877-ABC4-B3782B405439}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="17805" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="17805" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="103">
   <si>
     <t>imahashi</t>
   </si>
@@ -858,8 +858,44 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$21:$AB$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.13195668802683874</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.6793710747185957E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$21:$AB$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.13195668802683874</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.6793710747185957E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -944,8 +980,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$22:$AB$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>7.6562457026112279E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.11046478464643333</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.5812414752112535E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.11722887801335101</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$22:$AB$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>7.6562457026112279E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.11046478464643333</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.5812414752112535E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.11722887801335101</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1033,8 +1111,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$23:$AB$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>9.5659698440968291E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.6260575464997791E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.8059005899111786E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.10420032845124554</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$23:$AB$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>9.5659698440968291E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.6260575464997791E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.8059005899111786E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.10420032845124554</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1122,8 +1242,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$24:$AB$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>9.4350463060028353E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.13560543963103178</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.9875434972206828E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.1237117788229187</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$24:$AB$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>9.4350463060028353E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.13560543963103178</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.9875434972206828E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.1237117788229187</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1253,6 +1415,7 @@
         <c:axId val="1980673951"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.45"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1334,7 +1497,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00_);[Red]\(#,##0.00\)" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1425,12 +1588,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1500,8 +1658,44 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$30:$AB$30</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="1">
+                    <c:v>0.14947073910366199</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.1578286203765874E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$30:$AB$30</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="1">
+                    <c:v>0.14947073910366199</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.1578286203765874E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1586,8 +1780,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$31:$AB$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>5.8387392032162901E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.13836621711805988</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.13440791457684029</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.18175070746843738</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$31:$AB$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>5.8387392032162901E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.13836621711805988</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.13440791457684029</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.18175070746843738</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1675,8 +1911,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$32:$AB$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.10744845136164621</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.14483902336468182</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.7675848474022789E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.14709607402980113</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$32:$AB$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.10744845136164621</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.14483902336468182</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.7675848474022789E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.14709607402980113</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1764,8 +2042,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$33:$AB$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>9.0600494216796196E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.11850729443951345</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.10480991130698906</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.11524811385487571</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$33:$AB$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>9.0600494216796196E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.11850729443951345</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.10480991130698906</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.11524811385487571</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1853,8 +2173,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$34:$AB$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.10253432024689961</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.4249621572213926E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.10522821114329056</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.11629643989322931</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$34:$AB$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.10253432024689961</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.4249621572213926E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.10522821114329056</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.11629643989322931</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1984,6 +2346,8 @@
         <c:axId val="1645386543"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.45"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2065,7 +2429,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00_);[Red]\(#,##0.00\)" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2156,12 +2520,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3274,16 +3633,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>138112</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3310,16 +3669,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>376237</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>90487</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3636,10 +3995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V102"/>
+  <dimension ref="A1:AB102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+    <sheetView tabSelected="1" topLeftCell="S8" workbookViewId="0">
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4393,7 +4752,7 @@
         <v>0.35745901219985071</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -4440,7 +4799,7 @@
         <v>0.38479223251342781</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -4493,7 +4852,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -4552,7 +4911,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -4604,8 +4963,11 @@
       <c r="R20" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="X20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -4669,8 +5031,23 @@
         <f>AVERAGE(B7,K7)</f>
         <v>0.39809493764358411</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X21" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y21" s="12">
+        <f>_xlfn.STDEV.P($D$6)</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="12">
+        <f>_xlfn.STDEV.P($B$7:$B$10,$D$7,$B$13,$E$9,$E$13,$K$8,$K$9,$K$16,$M$7)</f>
+        <v>0.13195668802683874</v>
+      </c>
+      <c r="AB21" s="12">
+        <f>_xlfn.STDEV.P($B$7,$K$7)</f>
+        <v>9.6793710747185957E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -4738,8 +5115,27 @@
         <f>AVERAGE(B8:B9,B15:B16,E7:F9,F11,E13,E15:F16,H7,H9:H10,H14:H15,K8:K16,L15:L16,M13:M16,M7,M11,)</f>
         <v>0.28618689953596022</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X22" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y22" s="12">
+        <f>_xlfn.STDEV.P($B$4:$B$6,$D$4:$D$5,$I$6)</f>
+        <v>7.6562457026112279E-2</v>
+      </c>
+      <c r="Z22" s="12">
+        <f>_xlfn.STDEV.P($B$11:$B$12,$B$15:$B$16,$D$9,$D$11,$D$13,$D$15,$E$8,$E$10:$E$11,$E$14:$E$15,$F$8:$F$10,$F$16,$H$7:$H$11,$H$13,$H$15:$H$16,$K$7,$K$10:$K$15,$L$16,$M$8,$M$10,$M$12,$M$14:$M$16,)</f>
+        <v>0.11046478464643333</v>
+      </c>
+      <c r="AA22" s="12">
+        <f>_xlfn.STDEV.P($B$3,$D$3)</f>
+        <v>4.5812414752112535E-2</v>
+      </c>
+      <c r="AB22" s="12">
+        <f>_xlfn.STDEV.P($B$8:$B$9,$B$15:$B$16,$E$7:$F$9,$F$11,$E$13,$E$15:$F$16,$H$7,$H$9:$H$10,$H$14:$H$15,$K$8:$K$16,$L$15:$L$16,$M$13:$M$16,$M$7,$M$11,)</f>
+        <v>0.11722887801335101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -4807,8 +5203,27 @@
         <f>AVERAGE(B10:B14,C7:C16,D12,D15,E10:E12,E14,F10,F12:F14,G15,H8,H11:H13,H16,I7:I16,J8,L13:L14,M8:M10,N10,N12,N14,O7:O16,)</f>
         <v>0.26880898141590281</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X23" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y23" s="12">
+        <f>_xlfn.STDEV.P($B$2:$B$3,$D$3,$C$5:$C$6,$E$6,$I$4:$I$5,$K$5:$K$6,$L$6)</f>
+        <v>9.5659698440968291E-2</v>
+      </c>
+      <c r="Z23" s="12">
+        <f>_xlfn.STDEV.P($C$7:$C$16,$B$14,$D$8,$D$10,$D$12,$D$14,$D$16,$E$16,$E$12,$E$7,$F$7,$F$11:$F$15,$G$15,$H$12,$H$14,$I$7:$I$16,$L$9,$L$11:$L$15,$M$9,$M$11,$M$13,$N$7:$N$13,$O$7:$O$16,$N$15:$N$16)</f>
+        <v>9.6260575464997791E-2</v>
+      </c>
+      <c r="AA23" s="12">
+        <f>_xlfn.STDEV.P($B$4:$B$6,$C$5,$D$6,$F$4,$F$6,$I$3:$I$6,$K$5:$K$6,$M$5,$N$6)</f>
+        <v>7.8059005899111786E-2</v>
+      </c>
+      <c r="AB23" s="12">
+        <f>_xlfn.STDEV.P($B$10:$B$14,$C$7:$C$16,$D$12,$D$15,$E$10:$E$12,$E$14,$F$10,$F$12:$F$14,$G$15,$H$8,$H$11:$H$13,$H$16,$I$7:$I$16,$J$8,$L$13:$L$14,$M$8:$M$10,$N$10,$N$12,$N$14,$O$7:$O$16,)</f>
+        <v>0.10420032845124554</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -4876,8 +5291,27 @@
         <f>AVERAGE(D7:D11,D13:D14,D16,G7:G14,G16,J7,J9:J16,L7:L12,M12,N7:N9,N11,N13,N15:N16,)</f>
         <v>0.3338880889290039</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X24" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y24" s="12">
+        <f>_xlfn.STDEV.P($C$2:$C$4,$D$2,$E$2:$E$5,$F$2:$F$6,$G$2:$G$6,$H$2:$H$6,$I$2:$I$3,$J$2:$J$6,$K$2:$K$4,$L$2:$L$5,$M$2:$M$6,$N$2:$N$6,$O$2:$O$6)</f>
+        <v>9.4350463060028353E-2</v>
+      </c>
+      <c r="Z24" s="12">
+        <f>_xlfn.STDEV.P($G$7:$G$14,$J$7:$J$16,$L$7:$L$8,$L$10,$N$14,)</f>
+        <v>0.13560543963103178</v>
+      </c>
+      <c r="AA24" s="12">
+        <f>_xlfn.STDEV.P($B$2:$O$2,$C$3:$C$4,$C$6,$D$4,$E$3:$E$6,$D$5,$F$3,$F$5,$G$3:$H$6,$J$3:$J$6,$K$3:$K$4,$L$3:$L$6,$M$3:$O$4,$N$5:$O$5,$O$6,$M$6,)</f>
+        <v>9.9875434972206828E-2</v>
+      </c>
+      <c r="AB24" s="12">
+        <f>_xlfn.STDEV.P($D$7:$D$11,$D$13:$D$14,$D$16,$G$7:$G$14,$G$16,$J$7,$J$9:$J$16,$L$7:$L$12,$M$12,$N$7:$N$9,$N$11,$N$13,$N$15:$N$16,)</f>
+        <v>0.1237117788229187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -4928,7 +5362,7 @@
       <c r="U25" s="12"/>
       <c r="V25" s="12"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -4978,7 +5412,7 @@
       <c r="T26" s="12"/>
       <c r="V26" s="12"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -5025,7 +5459,7 @@
         <v>0.4614124114696796</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -5075,7 +5509,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -5134,7 +5568,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -5198,8 +5632,23 @@
         <f>AVERAGE(B30,K30,)</f>
         <v>0.11121336177543356</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X30" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z30" s="12">
+        <f>_xlfn.STDEV.P($B$30:$B$31,$I$30,$K$31,$M$22:$M$23,)</f>
+        <v>0.14947073910366199</v>
+      </c>
+      <c r="AA30" s="12">
+        <f>_xlfn.STDEV.P($I$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="12">
+        <f>_xlfn.STDEV.P($B$30,$K$30,)</f>
+        <v>9.1578286203765874E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -5267,8 +5716,27 @@
         <f>AVERAGE(B28,B31,C30:E30,C31,H31:I31,I30,K29,K31,M24:M27,N30:O30,)</f>
         <v>0.19115218557189045</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X31" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y31" s="12">
+        <f>_xlfn.STDEV.P($B$17,$B$21,$D$21)</f>
+        <v>5.8387392032162901E-2</v>
+      </c>
+      <c r="Z31" s="12">
+        <f>_xlfn.STDEV.P($B$26,$B$28:$B$29,$D$22:$D$24,$D$26,$D$28,$C$30:$D$31,$E$31,$I$26,$I$28,$I$31,$K$30,$M$30:$M$31,$M$24,$O$31,$M$25,$M$28,$M$26:$M$27,)</f>
+        <v>0.13836621711805988</v>
+      </c>
+      <c r="AA31" s="12">
+        <f>_xlfn.STDEV.P($B$20,$D$21:$E$21,$K$21,)</f>
+        <v>0.13440791457684029</v>
+      </c>
+      <c r="AB31" s="12">
+        <f>_xlfn.STDEV.P($B$28,$B$31,$C$30:$E$30,$C$31,$H$31:$I$31,$I$30,$K$29,$K$31,$M$24:$M$27,$N$30:$O$30,)</f>
+        <v>0.18175070746843738</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.15">
       <c r="Q32" t="s">
         <v>56</v>
       </c>
@@ -5291,8 +5759,27 @@
         <f>AVERAGE(B24:B25,B27,B29,C28:C29,D24:D26,D31:F31,F30,F26,H27,H29:H30,I25:I29,K22:K23,K27:K28,L24,L26:L28,L30:L31,M28:M31,N22,N25:N26,N28,N31:O31,)</f>
         <v>0.21896864795482504</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X32" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y32" s="12">
+        <f>_xlfn.STDEV.P($B$19:$B$20,$D$20,$D$18,$E$21,$I$21,$K$21,)</f>
+        <v>0.10744845136164621</v>
+      </c>
+      <c r="Z32" s="12">
+        <f>_xlfn.STDEV.P($B$22:$B$25,$C$22,$C$28:$C$29,$D$25,$D$27,$D$29,$H$22:$I$22,$I$24,$I$27,$N$28,$K$28:$L$28,$K$29,$M$29,$H$28,$I$29,$H$30:$H$31,$K$22:$K$23,$L$30:$L$31,$N$30:$N$31,$O$30,)</f>
+        <v>0.14483902336468182</v>
+      </c>
+      <c r="AA32" s="12">
+        <f>_xlfn.STDEV.P($B$18:$B$19,$B$21,$D$17,$E$20,$F$21,$I$19:$I$20,$K$19:$K$20,)</f>
+        <v>9.7675848474022789E-2</v>
+      </c>
+      <c r="AB32" s="12">
+        <f>_xlfn.STDEV.P($B$24:$B$25,$B$27,$B$29,$C$28:$C$29,$D$24:$D$26,$D$31:$F$31,$F$30,$F$26,$H$27,$H$29:$H$30,$I$25:$I$29,$K$22:$K$23,$K$27:$K$28,$L$24,$L$26:$L$28,$L$30:$L$31,$M$28:$M$31,$N$22,$N$25:$N$26,$N$28,$N$31:$O$31,)</f>
+        <v>0.14709607402980113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -5318,8 +5805,27 @@
         <f>AVERAGE(B22:B23,B26,C22:C27,D22,D27,D29,F22:F25,F27:F29,G22,G26:H26,G28:G31,H28,H22:H23,I22:I24,J31,K24:K26,L25,L29,L22:M23,N23:N24,O22:O25,N27:O27,O28:O29,N29,)</f>
         <v>0.26754212224726515</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X33" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y33" s="12">
+        <f>_xlfn.STDEV.P($D$17,$B$18,$C$21,$D$19,$E$19:$E$20,$F$20:$F$21,$I$20,$N$17:$N$21,$L$20:$M$21,$O$21,)</f>
+        <v>9.0600494216796196E-2</v>
+      </c>
+      <c r="Z33" s="12">
+        <f>_xlfn.STDEV.P($B$27,$C$23:$C$27,$E$22,$E$26,$E$28,$E$30,$F$22:$F$30,$G$22:$G$24,$F$31,$G$26,$G$28,$G$30:$G$31,$H$23:$H$24,$H$27,$H$29,$I$23,$I$25,$K$24:$K$27,$L$22:$L$27,$L$29,$N$22:$N$27,$O$22:$O$29,$N$29)</f>
+        <v>0.11850729443951345</v>
+      </c>
+      <c r="AA33" s="12">
+        <f>_xlfn.STDEV.P($C$21,$D$19:$D$20,$F$19:$F$20,$G$21:$H$21,$I$17:$J$17,$N$17,$L$19:$N$21,$O$20:$O$21,)</f>
+        <v>0.10480991130698906</v>
+      </c>
+      <c r="AB33" s="12">
+        <f>_xlfn.STDEV.P($B$22:$B$23,$B$26,$C$22:$C$27,$D$22,$D$27,$D$29,$F$22:$F$25,$F$27:$F$29,$G$22,$G$26:$H$26,$G$28:$G$31,$H$28,$H$22:$H$23,$I$22:$I$24,$J$31,$K$24:$K$26,$L$25,$L$29,$L$22:$M$23,$N$23:$N$24,$O$22:$O$25,$N$27:$O$27,$O$28:$O$29,$N$29,)</f>
+        <v>0.11524811385487571</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
@@ -5384,8 +5890,27 @@
         <f>AVERAGE(D23,D28,E22:E29,G23:G25,G27,H24:H25,J22:J30,O26,)</f>
         <v>0.27552681403986118</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X34" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y34" s="12">
+        <f>_xlfn.STDEV.P($C$17:$C$20,$E$17:$E$18,$F$17:$F$19,$G$17:$H$21,$I$17:$I$19,$J$17:$J$21,$K$17:$K$20,$L$17:$M$19,$O$17:$O$20,)</f>
+        <v>0.10253432024689961</v>
+      </c>
+      <c r="Z34" s="12">
+        <f>_xlfn.STDEV.P($E$23:$E$25,$E$27,$E$29,$G$25,$G$27,$G$29,$H$25:$H$26,$J$22:$J$31)</f>
+        <v>8.4249621572213926E-2</v>
+      </c>
+      <c r="AA34" s="12">
+        <f>_xlfn.STDEV.P($B$17:$C$17,$C$18:$C$20,$D$18:$H$18,$E$17:$H$17,$E$19,$G$19:$H$20,$I$18,$J$18:$J$21,$K$17:$M$18,$N$18,$O$17:$O$19,)</f>
+        <v>0.10522821114329056</v>
+      </c>
+      <c r="AB34" s="12">
+        <f>_xlfn.STDEV.P($D$23,$D$28,$E$22:$E$29,$G$23:$G$25,$G$27,$H$24:$H$25,$J$22:$J$30,$O$26,)</f>
+        <v>0.11629643989322931</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -5432,7 +5957,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -5479,7 +6004,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -5526,7 +6051,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -5573,7 +6098,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
@@ -5620,7 +6145,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -5667,7 +6192,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
@@ -5714,7 +6239,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -5761,7 +6286,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
@@ -5808,7 +6333,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
@@ -5855,7 +6380,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
@@ -5902,7 +6427,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
@@ -5949,7 +6474,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
@@ -5996,7 +6521,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
@@ -8532,8 +9057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD186BCC-BCA3-4238-BD04-E0F5A366C187}">
   <dimension ref="A1:EK102"/>
   <sheetViews>
-    <sheetView topLeftCell="W2" workbookViewId="0">
-      <selection activeCell="AD36" sqref="AD36:AF49"/>
+    <sheetView topLeftCell="U19" workbookViewId="0">
+      <selection activeCell="U35" activeCellId="1" sqref="W35 U35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12272,12 +12797,12 @@
         <v>0.99386467915417898</v>
       </c>
       <c r="S44">
-        <f>T39*SQRT(138)/SQRT(T39^2)</f>
-        <v>11.74734012447073</v>
+        <f>S39*SQRT(138)/SQRT(1-S39^2)</f>
+        <v>3.0163907125540752</v>
       </c>
       <c r="T44">
         <f>TDIST(ABS(S44),138,2)</f>
-        <v>1.6129081532651016E-22</v>
+        <v>3.0462869042110546E-3</v>
       </c>
       <c r="U44">
         <f>T39*SQRT(68)/SQRT(1-T39^2)</f>
@@ -12288,12 +12813,12 @@
         <v>1.3097709659222759E-2</v>
       </c>
       <c r="W44">
-        <f>U39*SQRT(138)/SQRT(U39^2)</f>
-        <v>11.74734012447073</v>
+        <f>U39*SQRT(138)/SQRT(1-U39^2)</f>
+        <v>1.7113027594947305</v>
       </c>
       <c r="X44">
         <f>TDIST(ABS(W44),138,2)</f>
-        <v>1.6129081532651016E-22</v>
+        <v>8.9271922767302808E-2</v>
       </c>
       <c r="Z44" t="s">
         <v>97</v>

--- a/kaiseki/time_gap.xlsx
+++ b/kaiseki/time_gap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/kaiseki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{54AC58E4-259E-414F-8713-052FED5C094F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83EFB2F5-D1D8-4877-ABC4-B3782B405439}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:1_{54AC58E4-259E-414F-8713-052FED5C094F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{820325D8-105D-40C8-8FA1-7395B3281399}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="17805" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4065" yWindow="2280" windowWidth="19740" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="111">
   <si>
     <t>imahashi</t>
   </si>
@@ -449,6 +449,45 @@
   <si>
     <t>t 境界値 両側</t>
   </si>
+  <si>
+    <t>通常：事前</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジゼン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通常：事後</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SSE:レベル1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SSE:レベル2</t>
+  </si>
+  <si>
+    <t>SSE:レベル3</t>
+  </si>
+  <si>
+    <t>SSE:レベル4</t>
+  </si>
+  <si>
+    <t>SSE:レベル5</t>
+  </si>
+  <si>
+    <t>t-検定: 分散が等しくないと仮定した２標本による検定</t>
+  </si>
 </sst>
 </file>
 
@@ -764,7 +803,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：0-20</c:v>
+                  <c:v>SSE:レベル1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -803,13 +842,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -841,7 +880,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：21-40</c:v>
+                  <c:v>SSE:レベル2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -916,13 +955,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -963,7 +1002,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：41-60</c:v>
+                  <c:v>SSE:レベル3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1044,13 +1083,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1094,7 +1133,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：61-80</c:v>
+                  <c:v>SSE:レベル4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1175,13 +1214,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1225,7 +1264,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：81-100</c:v>
+                  <c:v>SSE:レベル5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1306,13 +1345,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1532,45 +1571,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1579,6 +1579,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1641,7 +1672,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：0-20</c:v>
+                  <c:v>SSE:レベル1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1716,13 +1747,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1763,7 +1794,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：21-40</c:v>
+                  <c:v>SSE:レベル2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1844,13 +1875,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1894,7 +1925,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：41-60</c:v>
+                  <c:v>SSE:レベル3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1975,13 +2006,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -2025,7 +2056,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：61-80</c:v>
+                  <c:v>SSE:レベル4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2106,13 +2137,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -2156,7 +2187,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：81-100</c:v>
+                  <c:v>SSE:レベル5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2237,13 +2268,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -2464,45 +2495,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2511,6 +2503,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3633,16 +3656,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>176212</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3669,16 +3692,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>376237</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>147637</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3997,8 +4020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S8" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+    <sheetView tabSelected="1" topLeftCell="J11" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20:R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4899,13 +4922,13 @@
         <v>0.37738776206970209</v>
       </c>
       <c r="S19" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="T19" t="s">
         <v>51</v>
       </c>
       <c r="U19" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="V19" t="s">
         <v>53</v>
@@ -4961,7 +4984,7 @@
         <v>54</v>
       </c>
       <c r="R20" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="X20" t="s">
         <v>60</v>
@@ -5017,7 +5040,7 @@
         <v>55</v>
       </c>
       <c r="R21" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="S21" s="12">
         <f>AVERAGE(D6)</f>
@@ -5097,7 +5120,7 @@
         <v>56</v>
       </c>
       <c r="R22" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="S22" s="12">
         <f>AVERAGE(B4:B6,D4:D5,I6)</f>
@@ -5185,7 +5208,7 @@
         <v>57</v>
       </c>
       <c r="R23" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="S23" s="12">
         <f>AVERAGE(B2:B3,D3,C5:C6,E6,I4:I5,K5:K6,L6)</f>
@@ -5273,7 +5296,7 @@
         <v>58</v>
       </c>
       <c r="R24" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="S24" s="12">
         <f>AVERAGE(C2:C4,D2,E2:E5,F2:F6,G2:G6,H2:H6,I2:I3,J2:J6,K2:K4,L2:L5,M2:M6,N2:N6,O2:O6)</f>
@@ -5556,13 +5579,13 @@
         <v>0.45251500606536871</v>
       </c>
       <c r="S29" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="T29" t="s">
         <v>51</v>
       </c>
       <c r="U29" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="V29" t="s">
         <v>53</v>
@@ -5618,7 +5641,7 @@
         <v>54</v>
       </c>
       <c r="R30" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="T30" s="12">
         <f>AVERAGE(B30:B31,I30,K31,M22:M23,)</f>
@@ -5698,7 +5721,7 @@
         <v>55</v>
       </c>
       <c r="R31" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="S31" s="12">
         <f>AVERAGE(B17,B21,D21)</f>
@@ -5741,7 +5764,7 @@
         <v>56</v>
       </c>
       <c r="R32" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="S32" s="12">
         <f>AVERAGE(B19:B20,D20,D18,E21,I21,K21,)</f>
@@ -5787,7 +5810,7 @@
         <v>57</v>
       </c>
       <c r="R33" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="S33" s="12">
         <f>AVERAGE(D17,B18,C21,D19,E19:E20,F20:F21,I20,N17:N21,L20:M21,O21,)</f>
@@ -5872,7 +5895,7 @@
         <v>58</v>
       </c>
       <c r="R34" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="S34" s="12">
         <f>AVERAGE(C17:C20,E17:E18,F17:F19,G17:H21,I17:I19,J17:J21,K17:K20,L17:M19,O17:O20,)</f>
@@ -9057,8 +9080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD186BCC-BCA3-4238-BD04-E0F5A366C187}">
   <dimension ref="A1:EK102"/>
   <sheetViews>
-    <sheetView topLeftCell="U19" workbookViewId="0">
-      <selection activeCell="U35" activeCellId="1" sqref="W35 U35"/>
+    <sheetView topLeftCell="AF28" workbookViewId="0">
+      <selection activeCell="AQ37" sqref="AQ37:AS47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12026,7 +12049,7 @@
         <v>0.24441390440195379</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -12043,7 +12066,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
@@ -12107,7 +12130,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -12175,8 +12198,17 @@
       <c r="AD35" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH35" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:45" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -12232,7 +12264,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:45" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -12281,8 +12313,28 @@
       <c r="Q37" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH37" s="14"/>
+      <c r="AI37" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL37" s="14"/>
+      <c r="AM37" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -12354,8 +12406,35 @@
       <c r="AF38" s="14" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH38" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI38">
+        <v>0.29463656688003187</v>
+      </c>
+      <c r="AJ38">
+        <v>0.30031598906892021</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM38">
+        <v>0.28091574534153563</v>
+      </c>
+      <c r="AN38">
+        <v>0.2505466419150455</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR38">
+        <v>0.28091574534153563</v>
+      </c>
+      <c r="AS38">
+        <v>0.2505466419150455</v>
+      </c>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
@@ -12438,8 +12517,35 @@
       <c r="AF39">
         <v>0.2505466419150455</v>
       </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH39" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI39">
+        <v>8.6804666411390719E-3</v>
+      </c>
+      <c r="AJ39">
+        <v>1.2284974843778317E-2</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM39">
+        <v>8.6271112533947755E-3</v>
+      </c>
+      <c r="AN39">
+        <v>1.809901939530251E-2</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR39">
+        <v>8.6271112533947755E-3</v>
+      </c>
+      <c r="AS39">
+        <v>1.809901939530251E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -12522,8 +12628,35 @@
       <c r="AF40">
         <v>1.809901939530251E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI40">
+        <v>70</v>
+      </c>
+      <c r="AJ40">
+        <v>140</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM40">
+        <v>70</v>
+      </c>
+      <c r="AN40">
+        <v>140</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR40">
+        <v>70</v>
+      </c>
+      <c r="AS40">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
@@ -12587,8 +12720,26 @@
       <c r="AF41">
         <v>140</v>
       </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH41" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -12658,8 +12809,26 @@
       <c r="AE42">
         <v>1.4956896021304272E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH42" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI42">
+        <v>161</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM42">
+        <v>187</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR42">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
@@ -12741,8 +12910,26 @@
       <c r="AE43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH43" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI43">
+        <v>-0.39028853386965373</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM43">
+        <v>1.9110909945881052</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR43">
+        <v>1.9110909945881052</v>
+      </c>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
@@ -12832,8 +13019,26 @@
       <c r="AE44">
         <v>208</v>
       </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH44" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI44">
+        <v>0.34841954357368277</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM44">
+        <v>2.8761184353701501E-2</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR44">
+        <v>2.8761184353701501E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
@@ -12903,8 +13108,26 @@
       <c r="AE45">
         <v>1.6963467218229342</v>
       </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH45" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI45">
+        <v>1.6543730574567295</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM45">
+        <v>1.6530428889466318</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR45">
+        <v>1.6530428889466318</v>
+      </c>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
@@ -12986,8 +13209,26 @@
       <c r="AE46">
         <v>4.5658133446839645E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH46" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI46">
+        <v>0.69683908714736553</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM46">
+        <v>5.7522368707403002E-2</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR46">
+        <v>5.7522368707403002E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:45" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
@@ -13077,8 +13318,28 @@
       <c r="AE47">
         <v>1.6522123760661407</v>
       </c>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH47" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI47" s="13">
+        <v>1.9748080917517898</v>
+      </c>
+      <c r="AJ47" s="13"/>
+      <c r="AL47" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM47" s="13">
+        <v>1.9727310334089139</v>
+      </c>
+      <c r="AN47" s="13"/>
+      <c r="AQ47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR47">
+        <v>1.9727310334089139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
@@ -15632,5 +15893,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>